--- a/biology/Écologie/Dominique_Bachelet/Dominique_Bachelet.xlsx
+++ b/biology/Écologie/Dominique_Bachelet/Dominique_Bachelet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dominique Bachelet est scientifique senior en changement climatique et professeure associée à l'Oregon State University.
 </t>
@@ -513,11 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enfance, éducation et débuts
-Bachelet passe la majeure partie de son parcours universitaire en France à étudier la biologie végétale, l'écologie et la pathologie[1]. Elle obtient un DEUG B (Diplôme d'études universitaires générales) en 1976 à l'Université des Sciences et Techniques[1]. En 1978, elle valide une maîtrise en biologie végétale et en 1979, termine son DEA (Diplôme d'études approfondies). Elle passe son doctorat en 1983 à l'Université d'État du Colorado[1].
-Carrière
-Bachelet est écologiste quantitative de 1988 à 1994 au laboratoire de recherche environnementale de l'Environmental Protection Agency à Corvallis[1]. Elle travailler à l'Oregon State University en 1988, en qualité de professeure associée[2] dans les domaines du changement climatique, des incendies et de l'écologie[1]. Pendant son séjour à l'OSU, elle est également directrice de la science du changement climatique de 2007 à 2008 au Nature Conservancy, puis en 2009, elle devient  responsable scientifique du changement climatique au Conservation Biology Institute[2]. De 2013 à 2015, elle donne des dizaines de présentations à des organisations de sciences environnementales parlant du changement climatique et de ses impacts sur l'écosystème[1].
-Elle travaille pour rendre la science plus accessible, en créant des ressources Web avec diverses organisations scientifiques[1],[3]. Elle retourne à l'Oregon State University en 2017, mais a poursuivi son travail de sensibilisation, obtenant des informations précieuses pour les étudiants, les scientifiques et les universitaires[1].
+          <t>Enfance, éducation et débuts</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bachelet passe la majeure partie de son parcours universitaire en France à étudier la biologie végétale, l'écologie et la pathologie. Elle obtient un DEUG B (Diplôme d'études universitaires générales) en 1976 à l'Université des Sciences et Techniques. En 1978, elle valide une maîtrise en biologie végétale et en 1979, termine son DEA (Diplôme d'études approfondies). Elle passe son doctorat en 1983 à l'Université d'État du Colorado.
 </t>
         </is>
       </c>
@@ -543,20 +557,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Travaux</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Bachelet est connue pour ses travaux axés sur les impacts du changement climatique et des perturbations associées sur la végétation et les bilans de carbone[4], par exemple, son travail faisait partie du premier modèle dynamique global de végétation MC1. Ses contributions au domaine de la "science du changement climatique, en particulier en utilisant la modélisation de simulation de la réponse de l'écosystème au changement environnemental" sont à la base de son élection en tant que membre de l'American Association of the Advancement of Science[1]. Son travail de modélisation est essentiel pour faire progresser les modèles de feu mondiaux et comprendre les multiples interactions entre la biosphère et l'atmosphère[5].
-Bachelet travaille dans un certain nombre de projets de collaboration avec l'État de l'Oregon, l'Institut de biologie de la conservation et le bassin de données, qui visent à communiquer des informations sur le changement climatique à la communauté.
-Emballage des informations utilisables sur le changement climatique pour l'armoise (2015)[6]
-Outil de sélection de lots de semences climato-intelligents (2016), Création d'outils climatiques utiles et utilisables (2016) [7],[8]
-Gestionnaires d'armoise et outils sur le changement climatique (2014) [9]
-Création d'un indice de vulnérabilité des sols pour identifier les zones sensibles à la sécheresse (2011 à 2013)[10]
-Estimation des pools et des flux de carbone à l'aide d'une DGVM avec affectation des sols prescrite : contribution du MC1 au projet Land Carbon (2012 à 2016) [11]
-Scénarios intégrés du climat, de l'hydrologie et de la végétation pour le nord-ouest et projection des effets futurs de la gestion des terres, des perturbations naturelles et du CO 2 sur l' empiétement ligneux dans les grandes plaines du nord dans un climat changeant (2012 à 2014)[12],[13]
-Vulnérabilité des sols au climat futur dans la coopérative de conservation du paysage des Rocheuses du Sud, avec des implications pour le changement de la végétation et le cycle de l'eau (2015)</t>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bachelet est écologiste quantitative de 1988 à 1994 au laboratoire de recherche environnementale de l'Environmental Protection Agency à Corvallis. Elle travailler à l'Oregon State University en 1988, en qualité de professeure associée dans les domaines du changement climatique, des incendies et de l'écologie. Pendant son séjour à l'OSU, elle est également directrice de la science du changement climatique de 2007 à 2008 au Nature Conservancy, puis en 2009, elle devient  responsable scientifique du changement climatique au Conservation Biology Institute. De 2013 à 2015, elle donne des dizaines de présentations à des organisations de sciences environnementales parlant du changement climatique et de ses impacts sur l'écosystème.
+Elle travaille pour rendre la science plus accessible, en créant des ressources Web avec diverses organisations scientifiques,. Elle retourne à l'Oregon State University en 2017, mais a poursuivi son travail de sensibilisation, obtenant des informations précieuses pour les étudiants, les scientifiques et les universitaires.
+</t>
         </is>
       </c>
     </row>
@@ -581,13 +595,22 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Prix et distinctions</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Membre de l'Association américaine pour l'avancement des sciences, 2017[1]
-À l'Oregon State University, elle a remporté le prix des services de 10, 20 et 25 ans pour ses contributions au campus[1].</t>
+          <t>Travaux</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Bachelet est connue pour ses travaux axés sur les impacts du changement climatique et des perturbations associées sur la végétation et les bilans de carbone, par exemple, son travail faisait partie du premier modèle dynamique global de végétation MC1. Ses contributions au domaine de la "science du changement climatique, en particulier en utilisant la modélisation de simulation de la réponse de l'écosystème au changement environnemental" sont à la base de son élection en tant que membre de l'American Association of the Advancement of Science. Son travail de modélisation est essentiel pour faire progresser les modèles de feu mondiaux et comprendre les multiples interactions entre la biosphère et l'atmosphère.
+Bachelet travaille dans un certain nombre de projets de collaboration avec l'État de l'Oregon, l'Institut de biologie de la conservation et le bassin de données, qui visent à communiquer des informations sur le changement climatique à la communauté.
+Emballage des informations utilisables sur le changement climatique pour l'armoise (2015)
+Outil de sélection de lots de semences climato-intelligents (2016), Création d'outils climatiques utiles et utilisables (2016) ,
+Gestionnaires d'armoise et outils sur le changement climatique (2014) 
+Création d'un indice de vulnérabilité des sols pour identifier les zones sensibles à la sécheresse (2011 à 2013)
+Estimation des pools et des flux de carbone à l'aide d'une DGVM avec affectation des sols prescrite : contribution du MC1 au projet Land Carbon (2012 à 2016) 
+Scénarios intégrés du climat, de l'hydrologie et de la végétation pour le nord-ouest et projection des effets futurs de la gestion des terres, des perturbations naturelles et du CO 2 sur l' empiétement ligneux dans les grandes plaines du nord dans un climat changeant (2012 à 2014),
+Vulnérabilité des sols au climat futur dans la coopérative de conservation du paysage des Rocheuses du Sud, avec des implications pour le changement de la végétation et le cycle de l'eau (2015)</t>
         </is>
       </c>
     </row>
@@ -612,12 +635,47 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Prix et distinctions</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Membre de l'Association américaine pour l'avancement des sciences, 2017
+À l'Oregon State University, elle a remporté le prix des services de 10, 20 et 25 ans pour ses contributions au campus.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dominique_Bachelet</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dominique_Bachelet</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dominique Bachelet parle français et anglais. Bien qu'elle soit souvent occupée par ses recherches sur le terrain, elle aime les activités de plein air comme la randonnée, le vélo et le kayak de mer[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dominique Bachelet parle français et anglais. Bien qu'elle soit souvent occupée par ses recherches sur le terrain, elle aime les activités de plein air comme la randonnée, le vélo et le kayak de mer.
 </t>
         </is>
       </c>
